--- a/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 10,99</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-3,69%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 12,23</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -913,12 +913,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 18,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 13,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 8,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,5; 6,74</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,13%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 22,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,34; 16,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 9,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 7,23</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,85; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,19%</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,85; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 0,0</t>
         </is>
       </c>
     </row>
@@ -1225,12 +1225,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 51,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 52,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,11</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1547,22 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,67</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,3</t>
         </is>
       </c>
     </row>
@@ -1698,27 +1698,27 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -1736,27 +1736,27 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 0,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 2,58</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,33</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 1,59</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 1,56</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 0,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 2,65</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,76</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 1,61</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 1,58</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 3,91</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 2,64</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,06</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,24</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,57</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,07</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 2,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,41</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,11</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,29</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 64,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">

--- a/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,1</t>
+          <t>0,0; 37,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,99</t>
+          <t>0,0; 32,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 0,0</t>
+          <t>-15,81; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,27</t>
+          <t>0,0; 11,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 10,99</t>
+          <t>-4,32; 8,54</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,2</t>
+          <t>0,0; 60,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,03</t>
+          <t>0,0; 49,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,24 +730,24 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 0,0</t>
+          <t>-15,81; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,64</t>
+          <t>0,0; 12,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 12,23</t>
+          <t>-4,32; 9,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 18,42</t>
+          <t>-6,0; 18,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 13,83</t>
+          <t>-8,89; 13,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 8,95</t>
+          <t>-2,7; 8,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 6,74</t>
+          <t>-4,8; 6,77</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 22,57</t>
+          <t>-6,01; 22,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 16,13</t>
+          <t>-9,96; 15,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 9,82</t>
+          <t>-2,7; 9,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 7,23</t>
+          <t>-4,8; 7,29</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,0</t>
+          <t>-10,64; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 0,0</t>
+          <t>-4,94; 0,0</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 0,0</t>
+          <t>-10,64; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 0,0</t>
+          <t>-4,94; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,84</t>
+          <t>0,0; 28,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,51</t>
+          <t>0,0; 34,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,88</t>
+          <t>0,0; 18,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,0</t>
+          <t>0,0; 14,44</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,41</t>
+          <t>0,0; 39,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,75</t>
+          <t>0,0; 53,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,19 +1359,19 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,31</t>
+          <t>0,0; 22,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,11</t>
+          <t>0,0; 16,88</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,24</t>
+          <t>0,0; 11,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,54</t>
+          <t>0,0; 12,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>0,0; 7,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,67</t>
+          <t>0,0; 7,23</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,66</t>
+          <t>0,0; 12,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,04</t>
+          <t>0,0; 14,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,87</t>
+          <t>0,0; 7,91</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,3</t>
+          <t>0,0; 7,79</t>
         </is>
       </c>
     </row>
@@ -1736,27 +1736,27 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 0,0</t>
+          <t>-11,25; 0,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,58</t>
+          <t>-3,99; 2,63</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,33</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,59</t>
+          <t>-2,77; 1,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,56</t>
+          <t>-3,84; 1,56</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 0,0</t>
+          <t>-11,25; 0,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 2,65</t>
+          <t>-3,99; 2,71</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,76</t>
+          <t>0,0; 7,01</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,61</t>
+          <t>-2,87; 1,61</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,58</t>
+          <t>-3,86; 1,59</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,91</t>
+          <t>-0,14; 4,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,64</t>
+          <t>-1,76; 2,82</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,35</t>
+          <t>-0,16; 2,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,06</t>
+          <t>-0,74; 1,87</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,24</t>
+          <t>0,11; 2,27</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,57</t>
+          <t>-0,82; 1,51</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,07</t>
+          <t>-0,14; 4,21</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,73</t>
+          <t>-1,78; 2,93</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,41</t>
+          <t>-0,16; 2,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,11</t>
+          <t>-0,74; 1,92</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,29</t>
+          <t>0,11; 2,33</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,61</t>
+          <t>-0,83; 1,54</t>
         </is>
       </c>
     </row>
